--- a/会计/Partnership Account (1) - Financial Statement/Practice 6.xlsx
+++ b/会计/Partnership Account (1) - Financial Statement/Practice 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Partnership Account (1) - Financial Statement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED591812-EAAC-8445-B1FD-A9AC85A78DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6DCEE0-09C3-6D49-A4D7-02831830EDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{372A1D90-3FF0-084D-9BD3-AE48CFB365AE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SOFP" sheetId="2" r:id="rId2"/>
     <sheet name="Current" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Long and Short</t>
   </si>
@@ -52,9 +52,6 @@
     <t>RM</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Less: Cost of Sales</t>
   </si>
   <si>
@@ -245,6 +242,12 @@
   </si>
   <si>
     <t>Drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>As At 30 June Year 6</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -743,158 +746,155 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,28 +1226,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1263,7 +1263,7 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>254700</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7">
         <v>1040</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
@@ -1312,7 +1312,7 @@
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="7">
@@ -1325,7 +1325,7 @@
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
@@ -1380,7 +1380,7 @@
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
@@ -1390,7 +1390,7 @@
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -1400,7 +1400,7 @@
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
@@ -1410,7 +1410,7 @@
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1420,7 +1420,7 @@
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
@@ -1430,7 +1430,7 @@
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
@@ -1440,7 +1440,7 @@
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="7">
@@ -1453,7 +1453,7 @@
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4">
         <v>4800</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7">
         <v>3200</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="7">
@@ -1533,7 +1533,7 @@
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1552,7 +1552,7 @@
     </row>
     <row r="35" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7">
@@ -1833,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="142" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="270" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1845,55 +1845,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4">
         <v>50000</v>
@@ -1916,12 +1916,12 @@
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4">
         <v>14000</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>-2800</v>
       </c>
       <c r="D9" s="4">
@@ -1931,12 +1931,12 @@
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="7">
         <v>20080</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>-4016</v>
       </c>
       <c r="D10" s="7">
@@ -1960,7 +1960,7 @@
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -1978,7 +1978,7 @@
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -1988,7 +1988,7 @@
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1998,7 +1998,7 @@
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7">
@@ -2011,7 +2011,7 @@
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -2040,7 +2040,7 @@
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7">
@@ -2050,7 +2050,7 @@
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2071,8 +2071,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>49</v>
+      <c r="A23" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -2098,7 +2098,7 @@
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="7">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -2129,7 +2129,7 @@
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="7">
@@ -2142,7 +2142,7 @@
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2468,7 +2468,7 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="162" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2480,228 +2480,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>11110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="32">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>8000</v>
+      </c>
+      <c r="E6" s="33">
+        <v>11110</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
-        <v>11110</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="36">
-        <v>7000</v>
-      </c>
-      <c r="D6" s="15">
-        <v>8000</v>
-      </c>
-      <c r="E6" s="37">
-        <v>11110</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="55">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59">
+      <c r="G7" s="34">
+        <v>4800</v>
+      </c>
+      <c r="H7" s="35">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="15">
-        <v>4000</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="38">
-        <v>4800</v>
-      </c>
-      <c r="H7" s="39">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60">
-        <v>30</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="36">
+        <v>58</v>
+      </c>
+      <c r="C8" s="32">
         <f>G7+G9-C6</f>
         <v>5996</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f>H7+H8+H9-D7-D6</f>
         <v>2548</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39">
+        <v>66</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="35">
         <v>3152</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="37"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="61">
+        <v>62</v>
+      </c>
+      <c r="G9" s="56">
         <v>8196</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="57">
         <v>8196</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="49">
+      <c r="C10" s="45">
         <f>C6+C8</f>
         <v>12996</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="46">
         <f>D6+D7+D8</f>
         <v>14548</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="51">
+      <c r="G10" s="47">
         <f>G7+G9</f>
         <v>12996</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="48">
         <f>H7+H8+H9</f>
         <v>14548</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="45"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="44" t="s">
-        <v>64</v>
+      <c r="E11" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="39"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="37">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="33">
         <v>37073</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="42">
+        <v>57</v>
+      </c>
+      <c r="G12" s="38">
         <v>5996</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="39">
         <v>2548</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/会计/Partnership Account (1) - Financial Statement/Practice 6.xlsx
+++ b/会计/Partnership Account (1) - Financial Statement/Practice 6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Partnership Account (1) - Financial Statement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6DCEE0-09C3-6D49-A4D7-02831830EDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F4EE2-B169-094F-9B67-19BE287A85CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{372A1D90-3FF0-084D-9BD3-AE48CFB365AE}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{372A1D90-3FF0-084D-9BD3-AE48CFB365AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Long and Short</t>
   </si>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">          - Short</t>
   </si>
   <si>
-    <t xml:space="preserve">          Partners' Commission</t>
-  </si>
-  <si>
     <t>Balance of Profit Shared</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>Short</t>
   </si>
   <si>
-    <t>- Partners' Commission</t>
-  </si>
-  <si>
     <t>Drawings</t>
   </si>
   <si>
@@ -248,6 +242,15 @@
   </si>
   <si>
     <t>As At 30 June Year 6</t>
+  </si>
+  <si>
+    <t>- Sales Commission</t>
+  </si>
+  <si>
+    <t>Partners' Capital (Transfer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Sales Commission</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1218,8 @@
   </sheetPr>
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="170" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="170" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1503,7 +1506,7 @@
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1533,7 +1536,7 @@
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="34" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4">
@@ -1552,7 +1555,7 @@
     </row>
     <row r="35" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7">
@@ -1846,7 +1849,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -1854,7 +1857,7 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -1882,18 +1885,18 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1901,7 +1904,7 @@
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4">
         <v>50000</v>
@@ -1916,7 +1919,7 @@
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4">
         <v>14000</v>
@@ -1931,7 +1934,7 @@
     </row>
     <row r="10" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7">
         <v>20080</v>
@@ -1960,7 +1963,7 @@
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1968,7 +1971,7 @@
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -1978,7 +1981,7 @@
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
@@ -1988,7 +1991,7 @@
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
@@ -1998,7 +2001,7 @@
     </row>
     <row r="16" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7">
@@ -2011,7 +2014,7 @@
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2022,7 +2025,7 @@
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2030,7 +2033,7 @@
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
@@ -2040,7 +2043,7 @@
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="7">
@@ -2050,7 +2053,7 @@
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2061,7 +2064,7 @@
     </row>
     <row r="22" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2088,7 +2091,7 @@
     </row>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
@@ -2098,7 +2101,7 @@
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="7">
@@ -2111,7 +2114,7 @@
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -2129,7 +2132,7 @@
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="7">
@@ -2142,7 +2145,7 @@
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2467,8 +2470,8 @@
   </sheetPr>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="162" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" zoomScale="162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2481,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -2505,7 +2508,7 @@
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -2519,23 +2522,23 @@
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="19"/>
       <c r="G4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="26" t="s">
@@ -2545,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="29" t="s">
@@ -2560,7 +2563,7 @@
         <v>11110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="32">
         <v>7000</v>
@@ -2572,7 +2575,7 @@
         <v>11110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="35"/>
@@ -2582,17 +2585,17 @@
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="13">
         <v>4000</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="34">
         <v>4800</v>
@@ -2606,7 +2609,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="32">
         <f>G7+G9-C6</f>
@@ -2618,10 +2621,10 @@
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="35">
         <v>3152</v>
@@ -2634,7 +2637,7 @@
       <c r="D9" s="44"/>
       <c r="E9" s="33"/>
       <c r="F9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="56">
         <v>8196</v>
@@ -2671,7 +2674,7 @@
       <c r="C11" s="41"/>
       <c r="D11" s="4"/>
       <c r="E11" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="38"/>
@@ -2686,7 +2689,7 @@
         <v>37073</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="38">
         <v>5996</v>
